--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/B2m-Gm11127.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/B2m-Gm11127.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1111.404703666667</v>
+        <v>1809.511841</v>
       </c>
       <c r="H2">
-        <v>3334.214111</v>
+        <v>5428.535523</v>
       </c>
       <c r="I2">
-        <v>0.2049713233760527</v>
+        <v>0.2989288062794902</v>
       </c>
       <c r="J2">
-        <v>0.2049713233760527</v>
+        <v>0.2989288062794903</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.185824</v>
+        <v>0.4271833333333333</v>
       </c>
       <c r="N2">
-        <v>0.557472</v>
+        <v>1.28155</v>
       </c>
       <c r="O2">
-        <v>0.7926810887363958</v>
+        <v>0.7619379997514806</v>
       </c>
       <c r="P2">
-        <v>0.7926810887363958</v>
+        <v>0.7619379997514806</v>
       </c>
       <c r="Q2">
-        <v>206.5256676541547</v>
+        <v>772.9932999445167</v>
       </c>
       <c r="R2">
-        <v>1858.731008887392</v>
+        <v>6956.93969950065</v>
       </c>
       <c r="S2">
-        <v>0.1624768917734693</v>
+        <v>0.2277652167246926</v>
       </c>
       <c r="T2">
-        <v>0.1624768917734693</v>
+        <v>0.2277652167246926</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1111.404703666667</v>
+        <v>1809.511841</v>
       </c>
       <c r="H3">
-        <v>3334.214111</v>
+        <v>5428.535523</v>
       </c>
       <c r="I3">
-        <v>0.2049713233760527</v>
+        <v>0.2989288062794902</v>
       </c>
       <c r="J3">
-        <v>0.2049713233760527</v>
+        <v>0.2989288062794903</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.095438</v>
       </c>
       <c r="O3">
-        <v>0.1357052869862955</v>
+        <v>0.05674210044109227</v>
       </c>
       <c r="P3">
-        <v>0.1357052869862955</v>
+        <v>0.05674210044109228</v>
       </c>
       <c r="Q3">
-        <v>35.35674736951311</v>
+        <v>57.56539702711933</v>
       </c>
       <c r="R3">
-        <v>318.210726325618</v>
+        <v>518.088573244074</v>
       </c>
       <c r="S3">
-        <v>0.02781569226270801</v>
+        <v>0.01696184835064665</v>
       </c>
       <c r="T3">
-        <v>0.02781569226270802</v>
+        <v>0.01696184835064665</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1111.404703666667</v>
+        <v>1809.511841</v>
       </c>
       <c r="H4">
-        <v>3334.214111</v>
+        <v>5428.535523</v>
       </c>
       <c r="I4">
-        <v>0.2049713233760527</v>
+        <v>0.2989288062794902</v>
       </c>
       <c r="J4">
-        <v>0.2049713233760527</v>
+        <v>0.2989288062794903</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,33 +679,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.016788</v>
+        <v>0.02317166666666666</v>
       </c>
       <c r="N4">
-        <v>0.050364</v>
+        <v>0.06951499999999999</v>
       </c>
       <c r="O4">
-        <v>0.07161362427730872</v>
+        <v>0.04132973356694953</v>
       </c>
       <c r="P4">
-        <v>0.0716136242773087</v>
+        <v>0.04132973356694953</v>
       </c>
       <c r="Q4">
-        <v>18.658262165156</v>
+        <v>41.92940520903834</v>
       </c>
       <c r="R4">
-        <v>167.924359486404</v>
+        <v>377.364646881345</v>
       </c>
       <c r="S4">
-        <v>0.01467873933987538</v>
+        <v>0.0123546479190176</v>
       </c>
       <c r="T4">
-        <v>0.01467873933987538</v>
+        <v>0.0123546479190176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1149.586873333333</v>
+        <v>1809.511841</v>
       </c>
       <c r="H5">
-        <v>3448.76062</v>
+        <v>5428.535523</v>
       </c>
       <c r="I5">
-        <v>0.2120130875688133</v>
+        <v>0.2989288062794902</v>
       </c>
       <c r="J5">
-        <v>0.2120130875688133</v>
+        <v>0.2989288062794903</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.185824</v>
+        <v>0.078486</v>
       </c>
       <c r="N5">
-        <v>0.557472</v>
+        <v>0.235458</v>
       </c>
       <c r="O5">
-        <v>0.7926810887363958</v>
+        <v>0.1399901662404776</v>
       </c>
       <c r="P5">
-        <v>0.7926810887363958</v>
+        <v>0.1399901662404776</v>
       </c>
       <c r="Q5">
-        <v>213.6208311502933</v>
+        <v>142.021346352726</v>
       </c>
       <c r="R5">
-        <v>1922.58748035264</v>
+        <v>1278.192117174534</v>
       </c>
       <c r="S5">
-        <v>0.1680587650804117</v>
+        <v>0.04184709328513337</v>
       </c>
       <c r="T5">
-        <v>0.1680587650804118</v>
+        <v>0.04184709328513338</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>3448.76062</v>
       </c>
       <c r="I6">
-        <v>0.2120130875688133</v>
+        <v>0.1899101315469672</v>
       </c>
       <c r="J6">
-        <v>0.2120130875688133</v>
+        <v>0.1899101315469672</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.03181266666666666</v>
+        <v>0.4271833333333333</v>
       </c>
       <c r="N6">
-        <v>0.095438</v>
+        <v>1.28155</v>
       </c>
       <c r="O6">
-        <v>0.1357052869862955</v>
+        <v>0.7619379997514806</v>
       </c>
       <c r="P6">
-        <v>0.1357052869862955</v>
+        <v>0.7619379997514806</v>
       </c>
       <c r="Q6">
-        <v>36.57142400572889</v>
+        <v>491.0843525067778</v>
       </c>
       <c r="R6">
-        <v>329.14281605156</v>
+        <v>4419.759172561</v>
       </c>
       <c r="S6">
-        <v>0.02877129689337641</v>
+        <v>0.1446997457634367</v>
       </c>
       <c r="T6">
-        <v>0.02877129689337642</v>
+        <v>0.1446997457634367</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>3448.76062</v>
       </c>
       <c r="I7">
-        <v>0.2120130875688133</v>
+        <v>0.1899101315469672</v>
       </c>
       <c r="J7">
-        <v>0.2120130875688133</v>
+        <v>0.1899101315469672</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,33 +865,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.016788</v>
+        <v>0.03181266666666666</v>
       </c>
       <c r="N7">
-        <v>0.050364</v>
+        <v>0.095438</v>
       </c>
       <c r="O7">
-        <v>0.07161362427730872</v>
+        <v>0.05674210044109227</v>
       </c>
       <c r="P7">
-        <v>0.0716136242773087</v>
+        <v>0.05674210044109228</v>
       </c>
       <c r="Q7">
-        <v>19.29926442952</v>
+        <v>36.57142400572889</v>
       </c>
       <c r="R7">
-        <v>173.69337986568</v>
+        <v>329.14281605156</v>
       </c>
       <c r="S7">
-        <v>0.01518302559502514</v>
+        <v>0.01077589975901906</v>
       </c>
       <c r="T7">
-        <v>0.01518302559502515</v>
+        <v>0.01077589975901906</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>221.836001</v>
+        <v>1149.586873333333</v>
       </c>
       <c r="H8">
-        <v>665.508003</v>
+        <v>3448.76062</v>
       </c>
       <c r="I8">
-        <v>0.04091220646035591</v>
+        <v>0.1899101315469672</v>
       </c>
       <c r="J8">
-        <v>0.04091220646035591</v>
+        <v>0.1899101315469672</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.185824</v>
+        <v>0.02317166666666666</v>
       </c>
       <c r="N8">
-        <v>0.557472</v>
+        <v>0.06951499999999999</v>
       </c>
       <c r="O8">
-        <v>0.7926810887363958</v>
+        <v>0.04132973356694953</v>
       </c>
       <c r="P8">
-        <v>0.7926810887363958</v>
+        <v>0.04132973356694953</v>
       </c>
       <c r="Q8">
-        <v>41.222453049824</v>
+        <v>26.63784383325556</v>
       </c>
       <c r="R8">
-        <v>371.002077448416</v>
+        <v>239.7405944993</v>
       </c>
       <c r="S8">
-        <v>0.03243033235960312</v>
+        <v>0.007848935138500492</v>
       </c>
       <c r="T8">
-        <v>0.03243033235960313</v>
+        <v>0.007848935138500492</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>221.836001</v>
+        <v>1149.586873333333</v>
       </c>
       <c r="H9">
-        <v>665.508003</v>
+        <v>3448.76062</v>
       </c>
       <c r="I9">
-        <v>0.04091220646035591</v>
+        <v>0.1899101315469672</v>
       </c>
       <c r="J9">
-        <v>0.04091220646035591</v>
+        <v>0.1899101315469672</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03181266666666666</v>
+        <v>0.078486</v>
       </c>
       <c r="N9">
-        <v>0.095438</v>
+        <v>0.235458</v>
       </c>
       <c r="O9">
-        <v>0.1357052869862955</v>
+        <v>0.1399901662404776</v>
       </c>
       <c r="P9">
-        <v>0.1357052869862955</v>
+        <v>0.1399901662404776</v>
       </c>
       <c r="Q9">
-        <v>7.057194754479333</v>
+        <v>90.22647534044</v>
       </c>
       <c r="R9">
-        <v>63.514752790314</v>
+        <v>812.03827806396</v>
       </c>
       <c r="S9">
-        <v>0.005552002718945172</v>
+        <v>0.02658555088601092</v>
       </c>
       <c r="T9">
-        <v>0.005552002718945173</v>
+        <v>0.02658555088601092</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>221.836001</v>
+        <v>241.4316866666667</v>
       </c>
       <c r="H10">
-        <v>665.508003</v>
+        <v>724.29506</v>
       </c>
       <c r="I10">
-        <v>0.04091220646035591</v>
+        <v>0.03988417442652731</v>
       </c>
       <c r="J10">
-        <v>0.04091220646035591</v>
+        <v>0.03988417442652733</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.016788</v>
+        <v>0.4271833333333333</v>
       </c>
       <c r="N10">
-        <v>0.050364</v>
+        <v>1.28155</v>
       </c>
       <c r="O10">
-        <v>0.07161362427730872</v>
+        <v>0.7619379997514806</v>
       </c>
       <c r="P10">
-        <v>0.0716136242773087</v>
+        <v>0.7619379997514806</v>
       </c>
       <c r="Q10">
-        <v>3.724182784788</v>
+        <v>103.1355926825556</v>
       </c>
       <c r="R10">
-        <v>33.517645063092</v>
+        <v>928.2203341430001</v>
       </c>
       <c r="S10">
-        <v>0.00292987138180761</v>
+        <v>0.03038926808428738</v>
       </c>
       <c r="T10">
-        <v>0.00292987138180761</v>
+        <v>0.03038926808428739</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2939.417277333333</v>
+        <v>241.4316866666667</v>
       </c>
       <c r="H11">
-        <v>8818.251832</v>
+        <v>724.29506</v>
       </c>
       <c r="I11">
-        <v>0.5421033825947781</v>
+        <v>0.03988417442652731</v>
       </c>
       <c r="J11">
-        <v>0.5421033825947782</v>
+        <v>0.03988417442652733</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.185824</v>
+        <v>0.03181266666666666</v>
       </c>
       <c r="N11">
-        <v>0.557472</v>
+        <v>0.095438</v>
       </c>
       <c r="O11">
-        <v>0.7926810887363958</v>
+        <v>0.05674210044109227</v>
       </c>
       <c r="P11">
-        <v>0.7926810887363958</v>
+        <v>0.05674210044109228</v>
       </c>
       <c r="Q11">
-        <v>546.2142761431893</v>
+        <v>7.680585770697777</v>
       </c>
       <c r="R11">
-        <v>4915.928485288704</v>
+        <v>69.12527193628</v>
       </c>
       <c r="S11">
-        <v>0.4297150995229116</v>
+        <v>0.002263111831320057</v>
       </c>
       <c r="T11">
-        <v>0.4297150995229116</v>
+        <v>0.002263111831320058</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2939.417277333333</v>
+        <v>241.4316866666667</v>
       </c>
       <c r="H12">
-        <v>8818.251832</v>
+        <v>724.29506</v>
       </c>
       <c r="I12">
-        <v>0.5421033825947781</v>
+        <v>0.03988417442652731</v>
       </c>
       <c r="J12">
-        <v>0.5421033825947782</v>
+        <v>0.03988417442652733</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1175,33 +1175,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.03181266666666666</v>
+        <v>0.02317166666666666</v>
       </c>
       <c r="N12">
-        <v>0.095438</v>
+        <v>0.06951499999999999</v>
       </c>
       <c r="O12">
-        <v>0.1357052869862955</v>
+        <v>0.04132973356694953</v>
       </c>
       <c r="P12">
-        <v>0.1357052869862955</v>
+        <v>0.04132973356694953</v>
       </c>
       <c r="Q12">
-        <v>93.51070203804622</v>
+        <v>5.59437456621111</v>
       </c>
       <c r="R12">
-        <v>841.596318342416</v>
+        <v>50.3493710959</v>
       </c>
       <c r="S12">
-        <v>0.07356629511126592</v>
+        <v>0.001648402302586116</v>
       </c>
       <c r="T12">
-        <v>0.07356629511126593</v>
+        <v>0.001648402302586117</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2939.417277333333</v>
+        <v>241.4316866666667</v>
       </c>
       <c r="H13">
-        <v>8818.251832</v>
+        <v>724.29506</v>
       </c>
       <c r="I13">
-        <v>0.5421033825947781</v>
+        <v>0.03988417442652731</v>
       </c>
       <c r="J13">
-        <v>0.5421033825947782</v>
+        <v>0.03988417442652733</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,276 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.016788</v>
+        <v>0.078486</v>
       </c>
       <c r="N13">
-        <v>0.050364</v>
+        <v>0.235458</v>
       </c>
       <c r="O13">
-        <v>0.07161362427730872</v>
+        <v>0.1399901662404776</v>
       </c>
       <c r="P13">
-        <v>0.0716136242773087</v>
+        <v>0.1399901662404776</v>
       </c>
       <c r="Q13">
-        <v>49.34693725187201</v>
+        <v>18.94900735972</v>
       </c>
       <c r="R13">
-        <v>444.122435266848</v>
+        <v>170.54106623748</v>
       </c>
       <c r="S13">
-        <v>0.03882198796060057</v>
+        <v>0.005583392208333766</v>
       </c>
       <c r="T13">
-        <v>0.03882198796060057</v>
+        <v>0.005583392208333767</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2852.789998333333</v>
+      </c>
+      <c r="H14">
+        <v>8558.369994999999</v>
+      </c>
+      <c r="I14">
+        <v>0.4712768877470153</v>
+      </c>
+      <c r="J14">
+        <v>0.4712768877470154</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.4271833333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.28155</v>
+      </c>
+      <c r="O14">
+        <v>0.7619379997514806</v>
+      </c>
+      <c r="P14">
+        <v>0.7619379997514806</v>
+      </c>
+      <c r="Q14">
+        <v>1218.664340788028</v>
+      </c>
+      <c r="R14">
+        <v>10967.97906709225</v>
+      </c>
+      <c r="S14">
+        <v>0.3590837691790639</v>
+      </c>
+      <c r="T14">
+        <v>0.3590837691790639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2852.789998333333</v>
+      </c>
+      <c r="H15">
+        <v>8558.369994999999</v>
+      </c>
+      <c r="I15">
+        <v>0.4712768877470153</v>
+      </c>
+      <c r="J15">
+        <v>0.4712768877470154</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.03181266666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.095438</v>
+      </c>
+      <c r="O15">
+        <v>0.05674210044109227</v>
+      </c>
+      <c r="P15">
+        <v>0.05674210044109228</v>
+      </c>
+      <c r="Q15">
+        <v>90.75485728697888</v>
+      </c>
+      <c r="R15">
+        <v>816.7937155828099</v>
+      </c>
+      <c r="S15">
+        <v>0.02674124050010651</v>
+      </c>
+      <c r="T15">
+        <v>0.02674124050010652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2852.789998333333</v>
+      </c>
+      <c r="H16">
+        <v>8558.369994999999</v>
+      </c>
+      <c r="I16">
+        <v>0.4712768877470153</v>
+      </c>
+      <c r="J16">
+        <v>0.4712768877470154</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02317166666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.06951499999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.04132973356694953</v>
+      </c>
+      <c r="P16">
+        <v>0.04132973356694953</v>
+      </c>
+      <c r="Q16">
+        <v>66.10389891138054</v>
+      </c>
+      <c r="R16">
+        <v>594.9350902024249</v>
+      </c>
+      <c r="S16">
+        <v>0.01947774820684532</v>
+      </c>
+      <c r="T16">
+        <v>0.01947774820684533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2852.789998333333</v>
+      </c>
+      <c r="H17">
+        <v>8558.369994999999</v>
+      </c>
+      <c r="I17">
+        <v>0.4712768877470153</v>
+      </c>
+      <c r="J17">
+        <v>0.4712768877470154</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.078486</v>
+      </c>
+      <c r="N17">
+        <v>0.235458</v>
+      </c>
+      <c r="O17">
+        <v>0.1399901662404776</v>
+      </c>
+      <c r="P17">
+        <v>0.1399901662404776</v>
+      </c>
+      <c r="Q17">
+        <v>223.90407580919</v>
+      </c>
+      <c r="R17">
+        <v>2015.13668228271</v>
+      </c>
+      <c r="S17">
+        <v>0.06597412986099958</v>
+      </c>
+      <c r="T17">
+        <v>0.0659741298609996</v>
       </c>
     </row>
   </sheetData>
